--- a/server/lib/OptionsAnalysis/critical_levels.xlsx
+++ b/server/lib/OptionsAnalysis/critical_levels.xlsx
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="W2" t="n">
-        <v>708007618.8249384</v>
+        <v>517211118.378976</v>
       </c>
       <c r="X2" t="n">
-        <v>663838735.4133028</v>
+        <v>484945028.3264461</v>
       </c>
       <c r="Y2" t="n">
         <v>0.2396276713256845</v>
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="W3" t="n">
-        <v>34610030.87948244</v>
+        <v>8242725.590701704</v>
       </c>
       <c r="X3" t="n">
-        <v>34610030.87948244</v>
+        <v>8242725.590701704</v>
       </c>
       <c r="Y3" t="n">
         <v>0.1154690192497459</v>
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="W4" t="n">
-        <v>444509577.0745794</v>
+        <v>377631019.9532088</v>
       </c>
       <c r="X4" t="n">
-        <v>441014088.9193402</v>
+        <v>374661444.4358835</v>
       </c>
       <c r="Y4" t="n">
         <v>0.1123760990912706</v>
@@ -897,10 +897,10 @@
         </is>
       </c>
       <c r="W5" t="n">
-        <v>525533080.1688887</v>
+        <v>505945167.2339485</v>
       </c>
       <c r="X5" t="n">
-        <v>400125956.0698047</v>
+        <v>385212275.6826704</v>
       </c>
       <c r="Y5" t="n">
         <v>0.1052329263443156</v>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="W6" t="n">
-        <v>139588626.0040981</v>
+        <v>69947413.38231377</v>
       </c>
       <c r="X6" t="n">
-        <v>122792929.2581905</v>
+        <v>61531143.54027455</v>
       </c>
       <c r="Y6" t="n">
         <v>0.1003726232381401</v>
@@ -1069,10 +1069,10 @@
         </is>
       </c>
       <c r="W7" t="n">
-        <v>-433134529.0939762</v>
+        <v>-506320627.3384811</v>
       </c>
       <c r="X7" t="n">
-        <v>-433134529.0939762</v>
+        <v>-506320627.3384811</v>
       </c>
       <c r="Y7" t="n">
         <v>0.2397506593143131</v>
@@ -1140,10 +1140,10 @@
         </is>
       </c>
       <c r="W8" t="n">
-        <v>-234549639.7191107</v>
+        <v>-267593073.6620022</v>
       </c>
       <c r="X8" t="n">
-        <v>134377397.7557405</v>
+        <v>153308531.7855221</v>
       </c>
       <c r="Y8" t="n">
         <v>0.1150803164708703</v>
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="W9" t="n">
-        <v>-226503356.2125188</v>
+        <v>-272817324.8751284</v>
       </c>
       <c r="X9" t="n">
-        <v>-214204531.4407983</v>
+        <v>-258003714.4746689</v>
       </c>
       <c r="Y9" t="n">
         <v>0.1059697914169264</v>
